--- a/TestData/JTPS-DEVQA/DataType.xlsx
+++ b/TestData/JTPS-DEVQA/DataType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="115">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>allrows,value^</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Data Type</t>
   </si>
 </sst>
 </file>
@@ -979,7 +985,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1072,12 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
         <v>25</v>
@@ -1112,8 +1122,12 @@
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
         <v>25</v>

--- a/TestData/JTPS-DEVQA/DataType.xlsx
+++ b/TestData/JTPS-DEVQA/DataType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -163,9 +163,6 @@
     <t>scrollandclick</t>
   </si>
   <si>
-    <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
     <t>elm_RefinanceTypes</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>wnd_DayRanges</t>
-  </si>
-  <si>
     <t>elm_close</t>
   </si>
   <si>
@@ -346,19 +340,25 @@
     <t>EOF</t>
   </si>
   <si>
-    <t>,setproperty,innertext</t>
-  </si>
-  <si>
-    <t>allrows,value^,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
-    <t>allrows,value^</t>
-  </si>
-  <si>
     <t>TS001</t>
   </si>
   <si>
     <t>Data Type</t>
+  </si>
+  <si>
+    <t>wnd_DataType</t>
+  </si>
+  <si>
+    <t>Data Type,setproperty,innertext</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ</t>
   </si>
 </sst>
 </file>
@@ -984,12 +984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.85546875" customWidth="1"/>
   </cols>
@@ -1073,10 +1074,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
@@ -1123,10 +1124,10 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
@@ -1407,7 +1408,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>35</v>
@@ -1419,7 +1420,7 @@
         <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
@@ -1439,7 +1440,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>25</v>
@@ -1462,7 +1463,7 @@
         <v>36</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="17"/>
@@ -1483,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>25</v>
@@ -1504,10 +1505,10 @@
         <v>36</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -1527,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>25</v>
@@ -1569,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>25</v>
@@ -1583,7 +1584,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>35</v>
@@ -1595,7 +1596,7 @@
         <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
@@ -1615,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>25</v>
@@ -1624,12 +1625,12 @@
         <v>27</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>35</v>
@@ -1638,10 +1639,10 @@
         <v>36</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -1661,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>25</v>
@@ -1670,12 +1671,12 @@
         <v>27</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>35</v>
@@ -1684,10 +1685,10 @@
         <v>36</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -1707,7 +1708,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>25</v>
@@ -1716,12 +1717,12 @@
         <v>27</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>35</v>
@@ -1730,10 +1731,10 @@
         <v>36</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -1753,7 +1754,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>25</v>
@@ -1762,12 +1763,12 @@
         <v>27</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>35</v>
@@ -1776,10 +1777,10 @@
         <v>36</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P17" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
@@ -1789,7 +1790,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
@@ -1801,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>25</v>
@@ -1810,12 +1811,12 @@
         <v>27</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>35</v>
@@ -1824,10 +1825,10 @@
         <v>36</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -1847,7 +1848,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>25</v>
@@ -1856,12 +1857,12 @@
         <v>27</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M19" s="17" t="s">
         <v>35</v>
@@ -1870,10 +1871,10 @@
         <v>36</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
@@ -1893,7 +1894,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>25</v>
@@ -1902,12 +1903,12 @@
         <v>27</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M20" s="17" t="s">
         <v>35</v>
@@ -1916,10 +1917,10 @@
         <v>36</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -1939,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>25</v>
@@ -1948,12 +1949,12 @@
         <v>27</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>35</v>
@@ -1962,10 +1963,10 @@
         <v>36</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
@@ -1985,7 +1986,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>25</v>
@@ -1999,7 +2000,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M22" s="17" t="s">
         <v>35</v>
@@ -2008,10 +2009,10 @@
         <v>36</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -2031,7 +2032,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>25</v>
@@ -2073,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>25</v>
@@ -2087,7 +2088,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M24" s="17" t="s">
         <v>35</v>
@@ -2096,10 +2097,10 @@
         <v>36</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -2119,7 +2120,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>25</v>
@@ -2142,10 +2143,10 @@
         <v>36</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
@@ -2165,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>25</v>
@@ -2174,12 +2175,12 @@
         <v>27</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M26" s="17" t="s">
         <v>35</v>
@@ -2188,10 +2189,10 @@
         <v>36</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
@@ -2211,7 +2212,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>25</v>
@@ -2239,7 +2240,7 @@
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2251,7 +2252,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>25</v>
@@ -2274,10 +2275,10 @@
         <v>36</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
@@ -2297,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>25</v>
@@ -2311,7 +2312,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M29" s="17" t="s">
         <v>35</v>
@@ -2320,10 +2321,10 @@
         <v>36</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
@@ -2343,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>25</v>
@@ -2356,7 +2357,9 @@
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="37"/>
+      <c r="L30" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="M30" s="17" t="s">
         <v>35</v>
       </c>
@@ -2364,10 +2367,10 @@
         <v>36</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -2387,7 +2390,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>25</v>
@@ -2401,7 +2404,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>35</v>
@@ -2410,10 +2413,10 @@
         <v>36</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
@@ -2433,7 +2436,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>25</v>
@@ -2456,10 +2459,10 @@
         <v>36</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
@@ -2479,7 +2482,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>25</v>
@@ -2488,12 +2491,12 @@
         <v>27</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M33" s="17" t="s">
         <v>35</v>
@@ -2502,7 +2505,7 @@
         <v>36</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="19"/>
@@ -2523,7 +2526,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>25</v>
@@ -2532,12 +2535,12 @@
         <v>27</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>35</v>
@@ -2546,10 +2549,10 @@
         <v>36</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
@@ -2569,7 +2572,7 @@
         <v>25</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>25</v>
@@ -2592,10 +2595,10 @@
         <v>36</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
@@ -2615,7 +2618,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>25</v>
@@ -2628,8 +2631,8 @@
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="1" t="s">
-        <v>49</v>
+      <c r="L36" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="M36" s="17" t="s">
         <v>35</v>
@@ -2641,7 +2644,7 @@
         <v>45</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
@@ -2661,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>25</v>
@@ -2675,7 +2678,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>35</v>
@@ -2687,7 +2690,7 @@
         <v>45</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
@@ -2698,7 +2701,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="30"/>
     </row>
-    <row r="38" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="26"/>
@@ -2707,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>25</v>
@@ -2716,12 +2719,12 @@
         <v>27</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>35</v>
@@ -2730,10 +2733,10 @@
         <v>36</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
@@ -2753,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>25</v>
@@ -2776,10 +2779,10 @@
         <v>36</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -2799,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>25</v>
@@ -2813,7 +2816,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>35</v>
@@ -2822,10 +2825,10 @@
         <v>36</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
@@ -2845,7 +2848,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>25</v>
@@ -2858,7 +2861,9 @@
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="37"/>
+      <c r="L41" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="M41" s="17" t="s">
         <v>35</v>
       </c>
@@ -2866,10 +2871,10 @@
         <v>36</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -2889,7 +2894,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>25</v>
@@ -2903,7 +2908,7 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M42" s="17" t="s">
         <v>35</v>
@@ -2912,10 +2917,10 @@
         <v>36</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
@@ -2935,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>25</v>
@@ -2958,10 +2963,10 @@
         <v>36</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
@@ -2981,7 +2986,7 @@
         <v>25</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>25</v>
@@ -2990,12 +2995,12 @@
         <v>27</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>35</v>
@@ -3004,10 +3009,10 @@
         <v>36</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
@@ -3027,7 +3032,7 @@
         <v>25</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>25</v>
@@ -3050,10 +3055,10 @@
         <v>36</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
@@ -3073,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>25</v>
@@ -3086,8 +3091,8 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="1" t="s">
-        <v>49</v>
+      <c r="L46" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>35</v>
@@ -3099,7 +3104,7 @@
         <v>45</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
@@ -3119,7 +3124,7 @@
         <v>25</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>25</v>
@@ -3133,7 +3138,7 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>35</v>
@@ -3145,7 +3150,7 @@
         <v>45</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -3165,7 +3170,7 @@
         <v>25</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>25</v>
@@ -3188,10 +3193,10 @@
         <v>36</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
@@ -3211,7 +3216,7 @@
         <v>25</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>25</v>
@@ -3224,7 +3229,9 @@
       </c>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
-      <c r="L49" s="37"/>
+      <c r="L49" s="37" t="s">
+        <v>112</v>
+      </c>
       <c r="M49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3232,10 +3239,10 @@
         <v>36</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
@@ -3255,7 +3262,7 @@
         <v>25</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>25</v>
@@ -3278,10 +3285,10 @@
         <v>36</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
@@ -3301,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>25</v>
@@ -3310,12 +3317,12 @@
         <v>27</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>35</v>
@@ -3324,10 +3331,10 @@
         <v>36</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
@@ -3347,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>25</v>
@@ -3356,12 +3363,12 @@
         <v>27</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M52" s="17" t="s">
         <v>35</v>
@@ -3370,10 +3377,10 @@
         <v>36</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -3393,7 +3400,7 @@
         <v>25</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>25</v>
@@ -3416,10 +3423,10 @@
         <v>36</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -3439,7 +3446,7 @@
         <v>25</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>25</v>
@@ -3452,8 +3459,8 @@
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="1" t="s">
-        <v>49</v>
+      <c r="L54" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="M54" s="17" t="s">
         <v>35</v>
@@ -3465,7 +3472,7 @@
         <v>45</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
@@ -3485,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>25</v>
@@ -3499,7 +3506,7 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M55" s="17" t="s">
         <v>35</v>
@@ -3511,7 +3518,7 @@
         <v>45</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
@@ -3531,7 +3538,7 @@
         <v>25</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>25</v>
@@ -3545,7 +3552,7 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M56" s="17" t="s">
         <v>35</v>
@@ -3554,10 +3561,10 @@
         <v>36</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
@@ -3577,7 +3584,7 @@
         <v>25</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>25</v>
@@ -3600,10 +3607,10 @@
         <v>36</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -3623,7 +3630,7 @@
         <v>25</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>25</v>
@@ -3632,12 +3639,12 @@
         <v>27</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M58" s="17" t="s">
         <v>35</v>
@@ -3646,7 +3653,7 @@
         <v>36</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="17"/>
@@ -3667,7 +3674,7 @@
         <v>25</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>25</v>
@@ -3680,8 +3687,8 @@
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
-      <c r="L59" s="1" t="s">
-        <v>49</v>
+      <c r="L59" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="M59" s="17" t="s">
         <v>35</v>
@@ -3693,7 +3700,7 @@
         <v>45</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -3713,7 +3720,7 @@
         <v>25</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>25</v>
@@ -3727,7 +3734,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M60" s="17" t="s">
         <v>35</v>
@@ -3739,7 +3746,7 @@
         <v>45</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -3759,7 +3766,7 @@
         <v>25</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>25</v>
@@ -3773,7 +3780,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M61" s="17" t="s">
         <v>35</v>
@@ -3782,10 +3789,10 @@
         <v>36</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
@@ -3805,7 +3812,7 @@
         <v>25</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>25</v>
@@ -3828,10 +3835,10 @@
         <v>36</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
@@ -3851,7 +3858,7 @@
         <v>25</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>25</v>
@@ -3860,12 +3867,12 @@
         <v>27</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
       <c r="L63" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M63" s="17" t="s">
         <v>35</v>
@@ -3874,7 +3881,7 @@
         <v>36</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="19"/>
@@ -3895,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>25</v>
@@ -3918,10 +3925,10 @@
         <v>36</v>
       </c>
       <c r="O64" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
@@ -3941,7 +3948,7 @@
         <v>25</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>25</v>
@@ -3954,8 +3961,8 @@
       </c>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
-      <c r="L65" s="1" t="s">
-        <v>49</v>
+      <c r="L65" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="M65" s="17" t="s">
         <v>35</v>
@@ -3967,7 +3974,7 @@
         <v>45</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -3987,7 +3994,7 @@
         <v>25</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>25</v>
@@ -4001,7 +4008,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M66" s="17" t="s">
         <v>35</v>
@@ -4013,7 +4020,7 @@
         <v>45</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
@@ -4033,7 +4040,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>25</v>
@@ -4042,12 +4049,12 @@
         <v>27</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M67" s="17" t="s">
         <v>35</v>
@@ -4056,10 +4063,10 @@
         <v>36</v>
       </c>
       <c r="O67" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
@@ -4070,7 +4077,7 @@
       <c r="W67" s="2"/>
       <c r="X67" s="30"/>
     </row>
-    <row r="68" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="26"/>
@@ -4079,7 +4086,7 @@
         <v>25</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>25</v>
@@ -4088,12 +4095,12 @@
         <v>27</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M68" s="17" t="s">
         <v>35</v>
@@ -4102,10 +4109,10 @@
         <v>36</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
@@ -4125,7 +4132,7 @@
         <v>25</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>25</v>
@@ -4148,10 +4155,10 @@
         <v>36</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
@@ -4171,7 +4178,7 @@
         <v>25</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>25</v>
@@ -4194,10 +4201,10 @@
         <v>36</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4217,7 +4224,7 @@
         <v>25</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>25</v>
@@ -4240,10 +4247,10 @@
         <v>36</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
@@ -4263,7 +4270,7 @@
         <v>25</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>25</v>
@@ -4286,10 +4293,10 @@
         <v>36</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
@@ -4302,76 +4309,76 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M73" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/JTPS-DEVQA/DataType.xlsx
+++ b/TestData/JTPS-DEVQA/DataType.xlsx
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>35</v>
@@ -1278,7 +1278,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>35</v>
